--- a/flight_log.xlsx
+++ b/flight_log.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shohei/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shohei/Downloads/apogee-detection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63D348A-773C-B841-B184-E64EA7977B5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC1DDAD-F31A-5C4F-B4C5-D6221E5609FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5020" yWindow="1800" windowWidth="28360" windowHeight="17440" xr2:uid="{27CE462D-BD3A-5A47-B060-63646FFF8839}"/>
+    <workbookView xWindow="5020" yWindow="1800" windowWidth="28360" windowHeight="17440" activeTab="1" xr2:uid="{27CE462D-BD3A-5A47-B060-63646FFF8839}"/>
   </bookViews>
   <sheets>
     <sheet name="SOAR550" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$2:$D$9</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Time</t>
   </si>
@@ -69,208 +76,28 @@
     <t>lb/ft2</t>
   </si>
   <si>
-    <t>-----------------------------------------------------------------------------</t>
+    <t>m/sec2</t>
   </si>
   <si>
-    <t>Maximum</t>
+    <t>m</t>
   </si>
   <si>
-    <t>altitude:</t>
+    <t>Atmos. Pressure</t>
   </si>
   <si>
-    <t>velocity:</t>
+    <t>Pa</t>
   </si>
   <si>
-    <t>feet/sec.</t>
+    <t>Time [s]</t>
   </si>
   <si>
-    <t>acceleration:</t>
+    <t>Altitude [m]</t>
   </si>
   <si>
-    <t>feet/sec2</t>
+    <t>Acceleration [m/s2]</t>
   </si>
   <si>
-    <t>Minimum</t>
-  </si>
-  <si>
-    <t>Mach</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>=============================================================================</t>
-  </si>
-  <si>
-    <t>ECHO</t>
-  </si>
-  <si>
-    <t>OF</t>
-  </si>
-  <si>
-    <t>INPUT</t>
-  </si>
-  <si>
-    <t>DATA:</t>
-  </si>
-  <si>
-    <t>FILE,</t>
-  </si>
-  <si>
-    <t>RCON550.DAT</t>
-  </si>
-  <si>
-    <t>TITLE,</t>
-  </si>
-  <si>
-    <t>2"</t>
-  </si>
-  <si>
-    <t>rocket</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>A-100M</t>
-  </si>
-  <si>
-    <t>KNDX</t>
-  </si>
-  <si>
-    <t>UNITS,</t>
-  </si>
-  <si>
-    <t>ENGLISH</t>
-  </si>
-  <si>
-    <t>STAGES,</t>
-  </si>
-  <si>
-    <t>Cd,</t>
-  </si>
-  <si>
-    <t>DEAD</t>
-  </si>
-  <si>
-    <t>MASS,</t>
-  </si>
-  <si>
-    <t>DIAMETER,</t>
-  </si>
-  <si>
-    <t>THR550.DAT</t>
-  </si>
-  <si>
-    <t>motor</t>
-  </si>
-  <si>
-    <t>propellant</t>
-  </si>
-  <si>
-    <t>Isp,</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>STEP,</t>
-  </si>
-  <si>
-    <t>DATA</t>
-  </si>
-  <si>
-    <t>POINTS,</t>
-  </si>
-  <si>
-    <t>PRINTALL?,</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>THRUST</t>
-  </si>
-  <si>
-    <t>VALUE,</t>
-  </si>
-  <si>
-    <t>1,</t>
-  </si>
-  <si>
-    <t>2,</t>
-  </si>
-  <si>
-    <t>3,</t>
-  </si>
-  <si>
-    <t>4,</t>
-  </si>
-  <si>
-    <t>5,</t>
-  </si>
-  <si>
-    <t>6,</t>
-  </si>
-  <si>
-    <t>7,</t>
-  </si>
-  <si>
-    <t>8,</t>
-  </si>
-  <si>
-    <t>9,</t>
-  </si>
-  <si>
-    <t>10,</t>
-  </si>
-  <si>
-    <t>11,</t>
-  </si>
-  <si>
-    <t>12,</t>
-  </si>
-  <si>
-    <t>13,</t>
-  </si>
-  <si>
-    <t>14,</t>
-  </si>
-  <si>
-    <t>15,</t>
-  </si>
-  <si>
-    <t>16,</t>
-  </si>
-  <si>
-    <t>17,</t>
-  </si>
-  <si>
-    <t>18,</t>
-  </si>
-  <si>
-    <t>19,</t>
-  </si>
-  <si>
-    <t>20,</t>
-  </si>
-  <si>
-    <t>21,</t>
-  </si>
-  <si>
-    <t>******************************</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>PRINTOUT</t>
+    <t>Pressure [Pa]</t>
   </si>
 </sst>
 </file>
@@ -292,12 +119,18 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -314,8 +147,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -333,6 +169,2435 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SOAR550!$I$1:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Altitude</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SOAR550!$A$3:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.183</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.216</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.29899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.315</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.33200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.83199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.8319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.3319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.8319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.3319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.3319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.8319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.3319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.8319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.3319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.8319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.3320000000000007</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.8320000000000007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.3320000000000007</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.8320000000000007</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.832000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.832000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.832000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13.832000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14.332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14.832000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15.332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15.832000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16.332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16.832000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SOAR550!$I$3:$I$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0480000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12192000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.27432000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51816000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85343999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2496799999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7678400000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3469600000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8404799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.7244000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6692800000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.7360800000000012</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.8943199999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.1440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.454639999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.795760000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.167360000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52.974240000000009</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>89.73312</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>123.56592000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>154.47264000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>182.60568000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>207.96503999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>230.67264</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>250.72848000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>268.19352000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>283.09823999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>295.50360000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>305.37912</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>312.78576000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>317.69304</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>320.19240000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>320.19240000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>317.78447999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>312.90767999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>305.59248000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>295.83888000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>283.70783999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>269.19936000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>252.31343999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>233.14152000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>211.65312</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>187.93968000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>162.00120000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>133.92912000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>103.72344000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>71.4756</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>37.246560000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0363200000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-37.033200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DD1-0A4C-8D1D-E3E27082FD1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1349759024"/>
+        <c:axId val="1349760704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1349759024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1349760704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1349760704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1349759024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SOAR550!$J$1:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Acceleration</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>m/sec2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SOAR550!$A$3:$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.183</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.216</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.249</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.29899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.315</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.33200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.83199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.8320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.3319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.8319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.3319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.8319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.3319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.8319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.3319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.8319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.3319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.8319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.3319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.8319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.3320000000000007</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.8320000000000007</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.3320000000000007</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.8320000000000007</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10.332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.832000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11.332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.832000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12.332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.832000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>13.832000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14.332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14.832000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15.332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15.832000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16.332000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16.832000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SOAR550!$J$3:$J$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>-9.8084640000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0878800000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>195.766944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>274.88997599999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>268.55928</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>284.10103200000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>315.96177599999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>333.84439200000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>339.70874400000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>335.85607200000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>336.34680000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>340.94927999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>343.02496800000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>337.07222400000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>332.61909600000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>316.41897599999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>281.77540800000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>227.16134400000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>124.66624800000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.3088480000000011</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-12.612624000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-12.198096000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-11.832336000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-11.5062</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-11.21664</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-10.960608000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-10.735056</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-10.539984</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-10.372344</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-10.226039999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-10.10412</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-10.003536</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-9.9273360000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-9.8663759999999989</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-9.8298000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-9.8084640000000007</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-9.805416000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-9.7871280000000009</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-9.7475040000000011</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-9.6926400000000008</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-9.6164400000000008</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-9.5219520000000006</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-9.4122240000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-9.2872559999999993</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-9.1440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-8.9855040000000006</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-8.8117680000000007</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-8.6288879999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-8.4307680000000005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-8.2235040000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-8.0040480000000009</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-7.7754480000000008</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-7.5438000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-7.2999600000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F307-8341-B4A9-D5F14F69AF65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1329886544"/>
+        <c:axId val="1329888224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1329886544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1329888224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1329888224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1329886544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4188AC3-1586-1D4F-A686-0500C8A5E020}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{819EFCA1-8E2B-D444-8017-7AB741E55016}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -632,16 +2897,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B903B721-3D51-A142-9C7D-70056DE08899}">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" activeCellId="3" sqref="A1:A1048576 I1:I1048576 J1:J1048576 K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -665,9 +2930,18 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
@@ -691,8 +2965,17 @@
       <c r="H2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>0</v>
       </c>
@@ -717,8 +3000,20 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <f>C3*0.3048</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>E3*0.3048</f>
+        <v>-9.8084640000000007</v>
+      </c>
+      <c r="K3">
+        <f>1013*100/((0.0065*I3)/(25+273.15)+1)^5.257</f>
+        <v>101300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -743,8 +3038,20 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <f t="shared" ref="I4:I56" si="0">C4*0.3048</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J56" si="1">E4*0.3048</f>
+        <v>2.0878800000000002</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K56" si="2">1013*100/((0.0065*I4)/(25+273.15)+1)^5.257</f>
+        <v>101300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -769,8 +3076,20 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>195.766944</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="2"/>
+        <v>101300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>0.05</v>
       </c>
@@ -795,8 +3114,20 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>3.0480000000000004E-2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>274.88997599999999</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>101299.64613303187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6.6000000000000003E-2</v>
       </c>
@@ -821,8 +3152,20 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.12192000000000001</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>268.55928</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>101298.58454095501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>8.3000000000000004E-2</v>
       </c>
@@ -847,8 +3190,20 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0.27432000000000001</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>284.10103200000003</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="2"/>
+        <v>101296.81525025234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>0.1</v>
       </c>
@@ -873,8 +3228,20 @@
       <c r="H9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.51816000000000006</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>315.96177599999999</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>101293.9844616319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>0.11600000000000001</v>
       </c>
@@ -899,8 +3266,20 @@
       <c r="H10">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.85343999999999998</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>333.84439200000003</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>101290.09228101597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>0.13300000000000001</v>
       </c>
@@ -925,8 +3304,20 @@
       <c r="H11">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>1.2496799999999999</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>339.70874400000002</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>101285.49266068795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>0.14899999999999999</v>
       </c>
@@ -951,8 +3342,20 @@
       <c r="H12">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>1.7678400000000001</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>335.85607200000004</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>101279.47814767103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>0.16600000000000001</v>
       </c>
@@ -977,8 +3380,20 @@
       <c r="H13">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>2.3469600000000002</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>336.34680000000003</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>101272.7565479289</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>0.183</v>
       </c>
@@ -1003,8 +3418,20 @@
       <c r="H14">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>3.048</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>340.94927999999999</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>101264.62058492539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>0.19900000000000001</v>
       </c>
@@ -1029,8 +3456,20 @@
       <c r="H15">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>3.8404799999999999</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>343.02496800000006</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>101255.4243461165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>0.216</v>
       </c>
@@ -1055,8 +3494,20 @@
       <c r="H16">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>4.7244000000000002</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>337.07222400000006</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>101245.16817547132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>0.23200000000000001</v>
       </c>
@@ -1081,8 +3532,20 @@
       <c r="H17">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>5.6692800000000005</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>332.61909600000001</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>101234.20604999294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>0.249</v>
       </c>
@@ -1107,8 +3570,20 @@
       <c r="H18">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>6.7360800000000012</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>316.41897599999999</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="2"/>
+        <v>101221.8311545256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>0.26600000000000001</v>
       </c>
@@ -1133,8 +3608,20 @@
       <c r="H19">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>7.8943199999999996</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>281.77540800000003</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="2"/>
+        <v>101208.39759223913</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>0.28199999999999997</v>
       </c>
@@ -1159,8 +3646,20 @@
       <c r="H20">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>9.1440000000000001</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>227.16134400000001</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="2"/>
+        <v>101193.90586534314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>0.29899999999999999</v>
       </c>
@@ -1185,8 +3684,20 @@
       <c r="H21">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>10.454639999999999</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>124.66624800000001</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="2"/>
+        <v>101178.70987825442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>0.315</v>
       </c>
@@ -1211,8 +3722,20 @@
       <c r="H22">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>11.795760000000001</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>8.3088480000000011</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="2"/>
+        <v>101163.16330752318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>0.33200000000000002</v>
       </c>
@@ -1237,8 +3760,20 @@
       <c r="H23">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>13.167360000000002</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>-12.612624000000002</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="2"/>
+        <v>101147.2663464155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>0.83199999999999996</v>
       </c>
@@ -1263,8 +3798,20 @@
       <c r="H24">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>52.974240000000009</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>-12.198096000000001</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="2"/>
+        <v>100687.19387102641</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>1.3320000000000001</v>
       </c>
@@ -1289,8 +3836,20 @@
       <c r="H25">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>89.73312</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>-11.832336000000002</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="2"/>
+        <v>100264.55939784196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>1.8320000000000001</v>
       </c>
@@ -1315,8 +3874,20 @@
       <c r="H26">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>123.56592000000001</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>-11.5062</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>99877.432306254239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>2.3319999999999999</v>
       </c>
@@ -1341,8 +3912,20 @@
       <c r="H27">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>154.47264000000001</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>-11.21664</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="2"/>
+        <v>99525.340480788553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>2.8319999999999999</v>
       </c>
@@ -1367,8 +3950,20 @@
       <c r="H28">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>182.60568000000001</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>-10.960608000000001</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="2"/>
+        <v>99206.130359157702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>3.3319999999999999</v>
       </c>
@@ -1393,8 +3988,20 @@
       <c r="H29">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>207.96503999999999</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="1"/>
+        <v>-10.735056</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="2"/>
+        <v>98919.4354479381</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>3.8319999999999999</v>
       </c>
@@ -1419,8 +4026,20 @@
       <c r="H30">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>230.67264</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="1"/>
+        <v>-10.539984</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="2"/>
+        <v>98663.555945321845</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>4.3319999999999999</v>
       </c>
@@ -1445,8 +4064,20 @@
       <c r="H31">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>250.72848000000002</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="1"/>
+        <v>-10.372344</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="2"/>
+        <v>98438.212618855352</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>4.8319999999999999</v>
       </c>
@@ -1471,8 +4102,20 @@
       <c r="H32">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>268.19352000000003</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="1"/>
+        <v>-10.226039999999999</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="2"/>
+        <v>98242.477833455967</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>5.3319999999999999</v>
       </c>
@@ -1497,8 +4140,20 @@
       <c r="H33">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>283.09823999999998</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="1"/>
+        <v>-10.10412</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="2"/>
+        <v>98075.803411988702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>5.8319999999999999</v>
       </c>
@@ -1523,8 +4178,20 @@
       <c r="H34">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>295.50360000000001</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="1"/>
+        <v>-10.003536</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>97937.335073604452</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>6.3319999999999999</v>
       </c>
@@ -1549,8 +4216,20 @@
       <c r="H35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>305.37912</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="1"/>
+        <v>-9.9273360000000004</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>97827.27107295813</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>6.8319999999999999</v>
       </c>
@@ -1575,8 +4254,20 @@
       <c r="H36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>312.78576000000004</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="1"/>
+        <v>-9.8663759999999989</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>97744.81967825329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>7.3319999999999999</v>
       </c>
@@ -1601,8 +4292,20 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>317.69304</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="1"/>
+        <v>-9.8298000000000005</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>97690.236940848525</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>7.8319999999999999</v>
       </c>
@@ -1627,8 +4330,20 @@
       <c r="H38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>320.19240000000002</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="1"/>
+        <v>-9.8084640000000007</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>97662.450981475995</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>8.3320000000000007</v>
       </c>
@@ -1653,8 +4368,20 @@
       <c r="H39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>320.19240000000002</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="1"/>
+        <v>-9.805416000000001</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>97662.450981475995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>8.8320000000000007</v>
       </c>
@@ -1679,8 +4406,20 @@
       <c r="H40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>317.78447999999997</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="1"/>
+        <v>-9.7871280000000009</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>97689.220215550784</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>9.3320000000000007</v>
       </c>
@@ -1705,8 +4444,20 @@
       <c r="H41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>312.90767999999997</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="1"/>
+        <v>-9.7475040000000011</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>97743.463145758404</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>9.8320000000000007</v>
       </c>
@@ -1731,8 +4482,20 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>305.59248000000002</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="1"/>
+        <v>-9.6926400000000008</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>97824.894772205575</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>10.332000000000001</v>
       </c>
@@ -1757,8 +4520,20 @@
       <c r="H43">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>295.83888000000002</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="1"/>
+        <v>-9.6164400000000008</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>97933.595916622478</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>10.832000000000001</v>
       </c>
@@ -1783,8 +4558,20 @@
       <c r="H44">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>283.70783999999998</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="1"/>
+        <v>-9.5219520000000006</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>98068.993629475619</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>11.332000000000001</v>
       </c>
@@ -1809,8 +4596,20 @@
       <c r="H45">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>269.19936000000001</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="1"/>
+        <v>-9.4122240000000001</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>98231.219263741354</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>11.832000000000001</v>
       </c>
@@ -1835,8 +4634,20 @@
       <c r="H46">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>252.31343999999999</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="1"/>
+        <v>-9.2872559999999993</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>98420.430463652257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>12.332000000000001</v>
       </c>
@@ -1861,8 +4672,20 @@
       <c r="H47">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>233.14152000000001</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="1"/>
+        <v>-9.1440000000000001</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>98635.78299958157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>12.832000000000001</v>
       </c>
@@ -1887,8 +4710,20 @@
       <c r="H48">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>211.65312</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="1"/>
+        <v>-8.9855040000000006</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>98877.822818940025</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>13.332000000000001</v>
       </c>
@@ -1913,8 +4748,20 @@
       <c r="H49">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>187.93968000000001</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="1"/>
+        <v>-8.8117680000000007</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>99145.745898931331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>13.832000000000001</v>
       </c>
@@ -1939,8 +4786,20 @@
       <c r="H50">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>162.00120000000001</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="1"/>
+        <v>-8.6288879999999999</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>99439.798406118789</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>14.332000000000001</v>
       </c>
@@ -1965,8 +4824,20 @@
       <c r="H51">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>133.92912000000001</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="1"/>
+        <v>-8.4307680000000005</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>99759.208939563629</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>14.832000000000001</v>
       </c>
@@ -1991,8 +4862,20 @@
       <c r="H52">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>103.72344000000001</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="1"/>
+        <v>-8.2235040000000001</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>100104.26093575048</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>15.332000000000001</v>
       </c>
@@ -2017,8 +4900,20 @@
       <c r="H53">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>71.4756</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="1"/>
+        <v>-8.0040480000000009</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="2"/>
+        <v>100474.21038663686</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>15.832000000000001</v>
       </c>
@@ -2043,8 +4938,20 @@
       <c r="H54">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>37.246560000000002</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="1"/>
+        <v>-7.7754480000000008</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="2"/>
+        <v>100868.67004447916</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>16.332000000000001</v>
       </c>
@@ -2069,8 +4976,20 @@
       <c r="H55">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>1.0363200000000001</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>-7.5438000000000001</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="2"/>
+        <v>101287.969348434</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>16.832000000000001</v>
       </c>
@@ -2095,571 +5014,163 @@
       <c r="H56">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59">
-        <v>1050.5</v>
-      </c>
-      <c r="D59" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" t="s">
-        <v>17</v>
-      </c>
-      <c r="C61">
-        <v>271.45999999999998</v>
-      </c>
-      <c r="D61" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63">
-        <v>1125.4100000000001</v>
-      </c>
-      <c r="D63" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
-        <v>21</v>
-      </c>
-      <c r="B65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65">
-        <v>-41.383000000000003</v>
-      </c>
-      <c r="D65" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="s">
-        <v>15</v>
-      </c>
-      <c r="B67" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67" t="s">
-        <v>24</v>
-      </c>
-      <c r="E67">
-        <v>0.24</v>
-      </c>
-      <c r="F67" t="s">
-        <v>25</v>
-      </c>
-      <c r="G67">
-        <v>0.33</v>
-      </c>
-      <c r="H67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="s">
-        <v>27</v>
-      </c>
-      <c r="B70" t="s">
-        <v>28</v>
-      </c>
-      <c r="C70" t="s">
-        <v>29</v>
-      </c>
-      <c r="D70" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" t="s">
-        <v>31</v>
-      </c>
-      <c r="B72" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="s">
-        <v>33</v>
-      </c>
-      <c r="B73" t="s">
-        <v>34</v>
-      </c>
-      <c r="C73" t="s">
-        <v>35</v>
-      </c>
-      <c r="D73" t="s">
-        <v>36</v>
-      </c>
-      <c r="E73" t="s">
-        <v>37</v>
-      </c>
-      <c r="F73" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="s">
-        <v>39</v>
-      </c>
-      <c r="B74" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
-        <v>41</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" t="s">
-        <v>42</v>
-      </c>
-      <c r="B76">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" t="s">
-        <v>43</v>
-      </c>
-      <c r="B77" t="s">
-        <v>44</v>
-      </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" t="s">
-        <v>45</v>
-      </c>
-      <c r="B78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" t="s">
-        <v>31</v>
-      </c>
-      <c r="B80" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
-        <v>33</v>
-      </c>
-      <c r="B81" t="s">
-        <v>37</v>
-      </c>
-      <c r="C81" t="s">
-        <v>47</v>
-      </c>
-      <c r="D81" t="s">
-        <v>36</v>
-      </c>
-      <c r="E81" t="s">
-        <v>38</v>
-      </c>
-      <c r="F81" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" t="s">
-        <v>39</v>
-      </c>
-      <c r="B82" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
-        <v>49</v>
-      </c>
-      <c r="B83">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
-        <v>50</v>
-      </c>
-      <c r="B84" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84">
-        <v>1.66E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
-        <v>52</v>
-      </c>
-      <c r="B85" t="s">
-        <v>53</v>
-      </c>
-      <c r="C85">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" t="s">
-        <v>54</v>
-      </c>
-      <c r="B86" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
-        <v>56</v>
-      </c>
-      <c r="B87" t="s">
-        <v>57</v>
-      </c>
-      <c r="C87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
-        <v>56</v>
-      </c>
-      <c r="B88" t="s">
-        <v>57</v>
-      </c>
-      <c r="C88" t="s">
-        <v>59</v>
-      </c>
-      <c r="D88">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
-        <v>56</v>
-      </c>
-      <c r="B89" t="s">
-        <v>57</v>
-      </c>
-      <c r="C89" t="s">
-        <v>60</v>
-      </c>
-      <c r="D89">
-        <v>67.3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
-        <v>56</v>
-      </c>
-      <c r="B90" t="s">
-        <v>57</v>
-      </c>
-      <c r="C90" t="s">
-        <v>61</v>
-      </c>
-      <c r="D90">
-        <v>92.9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
-        <v>56</v>
-      </c>
-      <c r="B91" t="s">
-        <v>57</v>
-      </c>
-      <c r="C91" t="s">
-        <v>62</v>
-      </c>
-      <c r="D91">
-        <v>90.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
-        <v>56</v>
-      </c>
-      <c r="B92" t="s">
-        <v>57</v>
-      </c>
-      <c r="C92" t="s">
-        <v>63</v>
-      </c>
-      <c r="D92">
-        <v>95.2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
-        <v>56</v>
-      </c>
-      <c r="B93" t="s">
-        <v>57</v>
-      </c>
-      <c r="C93" t="s">
-        <v>64</v>
-      </c>
-      <c r="D93">
-        <v>105.1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" t="s">
-        <v>56</v>
-      </c>
-      <c r="B94" t="s">
-        <v>57</v>
-      </c>
-      <c r="C94" t="s">
-        <v>65</v>
-      </c>
-      <c r="D94">
-        <v>110.4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>56</v>
-      </c>
-      <c r="B95" t="s">
-        <v>57</v>
-      </c>
-      <c r="C95" t="s">
-        <v>66</v>
-      </c>
-      <c r="D95">
-        <v>111.8</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
-        <v>56</v>
-      </c>
-      <c r="B96" t="s">
-        <v>57</v>
-      </c>
-      <c r="C96" t="s">
-        <v>67</v>
-      </c>
-      <c r="D96">
-        <v>110.1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>56</v>
-      </c>
-      <c r="B97" t="s">
-        <v>57</v>
-      </c>
-      <c r="C97" t="s">
-        <v>68</v>
-      </c>
-      <c r="D97">
-        <v>109.8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>56</v>
-      </c>
-      <c r="B98" t="s">
-        <v>57</v>
-      </c>
-      <c r="C98" t="s">
-        <v>69</v>
-      </c>
-      <c r="D98">
-        <v>110.8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>56</v>
-      </c>
-      <c r="B99" t="s">
-        <v>57</v>
-      </c>
-      <c r="C99" t="s">
-        <v>70</v>
-      </c>
-      <c r="D99">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>56</v>
-      </c>
-      <c r="B100" t="s">
-        <v>57</v>
-      </c>
-      <c r="C100" t="s">
-        <v>71</v>
-      </c>
-      <c r="D100">
-        <v>108.7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>56</v>
-      </c>
-      <c r="B101" t="s">
-        <v>57</v>
-      </c>
-      <c r="C101" t="s">
-        <v>72</v>
-      </c>
-      <c r="D101">
-        <v>106.9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>56</v>
-      </c>
-      <c r="B102" t="s">
-        <v>57</v>
-      </c>
-      <c r="C102" t="s">
-        <v>73</v>
-      </c>
-      <c r="D102">
-        <v>101.5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>56</v>
-      </c>
-      <c r="B103" t="s">
-        <v>57</v>
-      </c>
-      <c r="C103" t="s">
-        <v>74</v>
-      </c>
-      <c r="D103">
-        <v>90.5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>56</v>
-      </c>
-      <c r="B104" t="s">
-        <v>57</v>
-      </c>
-      <c r="C104" t="s">
-        <v>75</v>
-      </c>
-      <c r="D104">
-        <v>73.5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>56</v>
-      </c>
-      <c r="B105" t="s">
-        <v>57</v>
-      </c>
-      <c r="C105" t="s">
-        <v>76</v>
-      </c>
-      <c r="D105">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>56</v>
-      </c>
-      <c r="B106" t="s">
-        <v>57</v>
-      </c>
-      <c r="C106" t="s">
-        <v>77</v>
-      </c>
-      <c r="D106">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" t="s">
-        <v>56</v>
-      </c>
-      <c r="B107" t="s">
-        <v>57</v>
-      </c>
-      <c r="C107" t="s">
-        <v>78</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
-        <v>79</v>
-      </c>
-      <c r="B108" t="s">
-        <v>80</v>
-      </c>
-      <c r="C108" t="s">
-        <v>28</v>
-      </c>
-      <c r="D108" t="s">
-        <v>81</v>
-      </c>
-      <c r="E108" t="s">
-        <v>79</v>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>-37.033200000000001</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>-7.2999600000000004</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="2"/>
+        <v>101731.03736792048</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23B9B46-980B-E14D-9635-6EACFBD5909F}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>6.3319999999999999</v>
+      </c>
+      <c r="B2">
+        <v>305.37912</v>
+      </c>
+      <c r="C2">
+        <v>-9.9273360000000004</v>
+      </c>
+      <c r="D2">
+        <v>97827.27107295813</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>6.8319999999999999</v>
+      </c>
+      <c r="B3">
+        <v>312.78576000000004</v>
+      </c>
+      <c r="C3">
+        <v>-9.8663759999999989</v>
+      </c>
+      <c r="D3">
+        <v>97744.81967825329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>7.3319999999999999</v>
+      </c>
+      <c r="B4">
+        <v>317.69304</v>
+      </c>
+      <c r="C4">
+        <v>-9.8298000000000005</v>
+      </c>
+      <c r="D4">
+        <v>97690.236940848525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>7.8319999999999999</v>
+      </c>
+      <c r="B5">
+        <v>320.19240000000002</v>
+      </c>
+      <c r="C5">
+        <v>-9.8084640000000007</v>
+      </c>
+      <c r="D5">
+        <v>97662.450981475995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>8.3320000000000007</v>
+      </c>
+      <c r="B6">
+        <v>320.19240000000002</v>
+      </c>
+      <c r="C6">
+        <v>-9.805416000000001</v>
+      </c>
+      <c r="D6">
+        <v>97662.450981475995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>8.8320000000000007</v>
+      </c>
+      <c r="B7">
+        <v>317.78447999999997</v>
+      </c>
+      <c r="C7">
+        <v>-9.7871280000000009</v>
+      </c>
+      <c r="D7">
+        <v>97689.220215550784</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>9.3320000000000007</v>
+      </c>
+      <c r="B8">
+        <v>312.90767999999997</v>
+      </c>
+      <c r="C8">
+        <v>-9.7475040000000011</v>
+      </c>
+      <c r="D8">
+        <v>97743.463145758404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>9.8320000000000007</v>
+      </c>
+      <c r="B9">
+        <v>305.59248000000002</v>
+      </c>
+      <c r="C9">
+        <v>-9.6926400000000008</v>
+      </c>
+      <c r="D9">
+        <v>97824.894772205575</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>